--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail15 Features.xlsx
@@ -4699,7 +4699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4710,29 +4710,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4753,115 +4751,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4878,72 +4866,66 @@
         <v>1.054627255132413e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.716829486051495</v>
+        <v>5.866284315443207e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.320843711753598</v>
+        <v>2.870009101228301e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.866284315443207e-07</v>
+        <v>0.05475835440082973</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.870009101228301e-06</v>
+        <v>0.245925706681944</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05475835440082973</v>
+        <v>0.06346769837743596</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.245925706681944</v>
+        <v>1.835867841515488</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06346769837743596</v>
+        <v>1.758580989217105</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.787899806234841</v>
+        <v>4.313320219347219</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.758580989217105</v>
+        <v>1.498526839507088e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.313320219347219</v>
+        <v>121048308.1285341</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.498526839507088e-15</v>
+        <v>9.7610242499416e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>121048308.1285341</v>
+        <v>21.95745358287462</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.7610242499416e-07</v>
+        <v>0.0001514170689083262</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>21.95745358287462</v>
+        <v>8.293432196396203</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001514170689083262</v>
+        <v>1.507200243982878</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.293432196396203</v>
+        <v>0.01041462008095182</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.507200243982878</v>
+        <v>3.037816142524171</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01041462008095182</v>
+        <v>0.9562018881614112</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.037816142524171</v>
+        <v>1.660140775000629</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9562018881614112</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.660140775000629</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2207342495255215</v>
       </c>
     </row>
@@ -4958,72 +4940,66 @@
         <v>9.274253401235572e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.436577743157049</v>
+        <v>5.412969222867332e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.165912578300552</v>
+        <v>2.875393403760788e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.412969222867332e-07</v>
+        <v>0.05364042377941246</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.875393403760788e-06</v>
+        <v>0.2743014576386659</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05364042377941246</v>
+        <v>0.0781018645641066</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2743014576386659</v>
+        <v>1.813348250794207</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0781018645641066</v>
+        <v>1.694295780192691</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.753529314264879</v>
+        <v>4.312519908944203</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.694295780192691</v>
+        <v>1.49908307944337e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.312519908944203</v>
+        <v>124416790.5746742</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.49908307944337e-15</v>
+        <v>9.461189769813381e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>124416790.5746742</v>
+        <v>23.20511315895874</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.461189769813381e-07</v>
+        <v>0.0001926481892688312</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>23.20511315895874</v>
+        <v>9.871412005426368</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001926481892688312</v>
+        <v>1.442186030851483</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.871412005426368</v>
+        <v>0.01877255945377444</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.442186030851483</v>
+        <v>2.863807207327377</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01877255945377444</v>
+        <v>0.9545393537891685</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.863807207327377</v>
+        <v>1.693244026283718</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9545393537891685</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.693244026283718</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.259871351237373</v>
       </c>
     </row>
@@ -5038,72 +5014,66 @@
         <v>8.141271089291927e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.9624204244720413</v>
+        <v>4.932563116333232e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.453139678189203</v>
+        <v>2.87991729813706e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.932563116333232e-07</v>
+        <v>0.04989617318267728</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.87991729813706e-06</v>
+        <v>0.3052849733098923</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04989617318267728</v>
+        <v>0.09566404403528236</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3052849733098923</v>
+        <v>1.805516288971149</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09566404403528236</v>
+        <v>1.639377784644494</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.746424074964462</v>
+        <v>4.587752087239036</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.639377784644494</v>
+        <v>1.257737718507634e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.587752087239036</v>
+        <v>147133990.4125608</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.257737718507634e-15</v>
+        <v>7.976895095112045e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>147133990.4125608</v>
+        <v>27.22802322990242</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.976895095112045e-07</v>
+        <v>0.0002052215678697143</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>27.22802322990242</v>
+        <v>12.38817056235402</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002052215678697143</v>
+        <v>1.120029864440695</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.38817056235402</v>
+        <v>0.03149469113107951</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.120029864440695</v>
+        <v>2.685363456462235</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03149469113107951</v>
+        <v>0.9561493388679031</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.685363456462235</v>
+        <v>1.718145808979014</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9561493388679031</v>
+        <v>17</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.718145808979014</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3303991730923401</v>
       </c>
     </row>
@@ -5118,72 +5088,66 @@
         <v>7.209465787602394e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2910885116259123</v>
+        <v>4.396280096719435e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.124072494562864</v>
+        <v>2.883471069020322e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.396280096719435e-07</v>
+        <v>0.04190319886625966</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.883471069020322e-06</v>
+        <v>0.3335966224749</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04190319886625966</v>
+        <v>0.1129980532372909</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3335966224749</v>
+        <v>1.865414180465923</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1129980532372909</v>
+        <v>1.840230151329147</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.82658699025649</v>
+        <v>4.08450080322395</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.840230151329147</v>
+        <v>1.128066005593674e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.08450080322395</v>
+        <v>162626198.4798581</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.128066005593674e-15</v>
+        <v>7.334144727464479e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>162626198.4798581</v>
+        <v>29.83427799575348</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.334144727464479e-07</v>
+        <v>0.0001539903530607892</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>29.83427799575348</v>
+        <v>10.87245894873207</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001539903530607892</v>
+        <v>1.241319591405547</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.87245894873207</v>
+        <v>0.01820325562495541</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.241319591405547</v>
+        <v>3.126387050715672</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01820325562495541</v>
+        <v>0.9579185789120158</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.126387050715672</v>
+        <v>1.600948510749073</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9579185789120158</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.600948510749073</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3197881771677794</v>
       </c>
     </row>
@@ -5198,72 +5162,66 @@
         <v>6.579752746515935e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3669073996453107</v>
+        <v>3.740295962810616e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.849598084183079</v>
+        <v>2.885883360113079e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.740295962810616e-07</v>
+        <v>0.02697758543284454</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.885883360113079e-06</v>
+        <v>0.3445569238694778</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02697758543284454</v>
+        <v>0.1193678210832025</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3445569238694778</v>
+        <v>1.87517847059911</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1193678210832025</v>
+        <v>1.72224811587303</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.842465999092442</v>
+        <v>4.568689181959696</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.72224811587303</v>
+        <v>7.74146491095987e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.568689181959696</v>
+        <v>234704227.0445971</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.74146491095987e-16</v>
+        <v>5.0894736407812e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>234704227.0445971</v>
+        <v>42.64469104445587</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.0894736407812e-07</v>
+        <v>0.0001091641579859668</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>42.64469104445587</v>
+        <v>8.875829820467031</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001091641579859668</v>
+        <v>1.186758609967035</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.875829820467031</v>
+        <v>0.008599991119617064</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.186758609967035</v>
+        <v>3.334326020719468</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008599991119617064</v>
+        <v>0.9581061296718456</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.334326020719468</v>
+        <v>1.603945092346146</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9581061296718456</v>
+        <v>27</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.603945092346146</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3371860187398227</v>
       </c>
     </row>
@@ -5278,72 +5236,66 @@
         <v>6.327573317852028e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6613550235492174</v>
+        <v>2.952002028567004e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.4461771742288039</v>
+        <v>2.8869455888867e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.952002028567004e-07</v>
+        <v>0.005151445824632172</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.8869455888867e-06</v>
+        <v>0.3217383780259584</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.005151445824632172</v>
+        <v>0.1034238784803888</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3217383780259584</v>
+        <v>1.871582771104312</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1034238784803888</v>
+        <v>1.865334216958329</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.855721777480148</v>
+        <v>4.1521490614676</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.865334216958329</v>
+        <v>5.199998633177281e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.1521490614676</v>
+        <v>352008837.3489065</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.199998633177281e-16</v>
+        <v>3.389312759222469e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>352008837.3489065</v>
+        <v>64.43329828096843</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.389312759222469e-07</v>
+        <v>0.0001044351155156534</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>64.43329828096843</v>
+        <v>8.064302200201078</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001044351155156534</v>
+        <v>1.265823336760749</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.064302200201078</v>
+        <v>0.006791725731787118</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.265823336760749</v>
+        <v>3.315606652705349</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006791725731787118</v>
+        <v>0.9580293960819171</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.315606652705349</v>
+        <v>1.531978480672613</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9580293960819171</v>
+        <v>27</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.531978480672613</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3379458910072599</v>
       </c>
     </row>
@@ -5358,72 +5310,66 @@
         <v>6.397468107454762e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6087760746262996</v>
+        <v>2.827128697638097e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.4277750193846122</v>
+        <v>2.886493133973072e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.827128697638097e-07</v>
+        <v>-0.01897185653539016</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.886493133973072e-06</v>
+        <v>0.2669439829102875</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01897185653539016</v>
+        <v>0.07150882106602664</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2669439829102875</v>
+        <v>1.863170631307022</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07150882106602664</v>
+        <v>1.96889378888124</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.84222544660827</v>
+        <v>4.554479652976507</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.96889378888124</v>
+        <v>4.321868707686868e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.554479652976507</v>
+        <v>425471417.4854596</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.321868707686868e-16</v>
+        <v>2.804524927325579e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>425471417.4854596</v>
+        <v>78.23702896009013</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.804524927325579e-07</v>
+        <v>0.0001067272819994685</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>78.23702896009013</v>
+        <v>7.279472513998945</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001067272819994685</v>
+        <v>1.355819422143155</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.279472513998945</v>
+        <v>0.005655555525553571</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.355819422143155</v>
+        <v>3.404037448147519</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005655555525553571</v>
+        <v>0.9585542228113003</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.404037448147519</v>
+        <v>1.582091084063268</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9585542228113003</v>
+        <v>30</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.582091084063268</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3238309508220605</v>
       </c>
     </row>
@@ -5438,72 +5384,66 @@
         <v>6.606006342048962e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5118270828268836</v>
+        <v>2.908265678861347e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.3287524307270164</v>
+        <v>2.884549346373592e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.908265678861347e-07</v>
+        <v>-0.03999213394200127</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.884549346373592e-06</v>
+        <v>0.2068859121795208</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03999213394200127</v>
+        <v>0.04432284210293647</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2068859121795208</v>
+        <v>1.86171625891624</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04432284210293647</v>
+        <v>2.11884086231675</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.83672801991996</v>
+        <v>4.469262918700752</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.11884086231675</v>
+        <v>4.488252625122696e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.469262918700752</v>
+        <v>410790252.7521749</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.488252625122696e-16</v>
+        <v>2.898878654403302e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>410790252.7521749</v>
+        <v>75.73864894656087</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.898878654403302e-07</v>
+        <v>0.0001142503061508447</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>75.73864894656087</v>
+        <v>7.06671061995836</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001142503061508447</v>
+        <v>1.531267016998035</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.06671061995836</v>
+        <v>0.005705477372860069</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.531267016998035</v>
+        <v>3.415157416428328</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.005705477372860069</v>
+        <v>0.9593155598254837</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.415157416428328</v>
+        <v>1.567798107229442</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9593155598254837</v>
+        <v>30</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.567798107229442</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3294964510589489</v>
       </c>
     </row>
@@ -5518,72 +5458,66 @@
         <v>6.790569770450566e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4605044761722586</v>
+        <v>3.0140267986252e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.332561743027207</v>
+        <v>2.881260697895619e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.0140267986252e-07</v>
+        <v>-0.05719778523165975</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.881260697895619e-06</v>
+        <v>0.155808700998278</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05719778523165975</v>
+        <v>0.02750476463963648</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.155808700998278</v>
+        <v>1.854868014783487</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02750476463963648</v>
+        <v>2.138740119604798</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.827018979550073</v>
+        <v>4.342212085825499</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.138740119604798</v>
+        <v>4.754742897039276e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.342212085825499</v>
+        <v>378451921.9334007</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.754742897039276e-16</v>
+        <v>3.143138534670018e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>378451921.9334007</v>
+        <v>68.10021272657862</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.143138534670018e-07</v>
+        <v>0.0001193520800988676</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>68.10021272657862</v>
+        <v>8.180384240043791</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001193520800988676</v>
+        <v>1.41173096671641</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.180384240043791</v>
+        <v>0.007986884409149851</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.41173096671641</v>
+        <v>3.301327377610839</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.007986884409149851</v>
+        <v>0.9588923488941143</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.301327377610839</v>
+        <v>1.521112947426429</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9588923488941143</v>
+        <v>22</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.521112947426429</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3349631930755525</v>
       </c>
     </row>
@@ -5598,72 +5532,66 @@
         <v>6.872377679999367e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3903838001188202</v>
+        <v>3.128884416099492e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.45238084739777</v>
+        <v>2.876880880256809e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.128884416099492e-07</v>
+        <v>-0.0700119778113647</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.876880880256809e-06</v>
+        <v>0.1242703963323629</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0700119778113647</v>
+        <v>0.02032867656204735</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1242703963323629</v>
+        <v>1.857597218179778</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02032867656204735</v>
+        <v>2.084974003290408</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.828033711112405</v>
+        <v>4.342703853752916</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.084974003290408</v>
+        <v>4.7536661035263e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.342703853752916</v>
+        <v>376240698.4908306</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.7536661035263e-16</v>
+        <v>3.158772415512332e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>376240698.4908306</v>
+        <v>67.29150130526969</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.158772415512332e-07</v>
+        <v>0.0001176504549714414</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>67.29150130526969</v>
+        <v>8.684663484569416</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001176504549714414</v>
+        <v>1.38789561455524</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.684663484569416</v>
+        <v>0.008873594953684946</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.38789561455524</v>
+        <v>3.172460867545152</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008873594953684946</v>
+        <v>0.958153285718747</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.172460867545152</v>
+        <v>1.579277105410715</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.958153285718747</v>
+        <v>48</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.579277105410715</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3232517673656225</v>
       </c>
     </row>
@@ -5678,72 +5606,66 @@
         <v>6.854176194795143e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2427103741246795</v>
+        <v>3.239989122794426e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.5288390259014046</v>
+        <v>2.871766096483272e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.239989122794426e-07</v>
+        <v>-0.07802487242393973</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.871766096483272e-06</v>
+        <v>0.1142972178564166</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.07802487242393973</v>
+        <v>0.01914957216862128</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1142972178564166</v>
+        <v>1.863173554945777</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01914957216862128</v>
+        <v>2.034786695071877</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.829938322477077</v>
+        <v>4.33235692999</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.034786695071877</v>
+        <v>4.776399482405168e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.33235692999</v>
+        <v>373763050.1582208</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.776399482405168e-16</v>
+        <v>3.187190795123341e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>373763050.1582208</v>
+        <v>66.72573603809217</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.187190795123341e-07</v>
+        <v>0.0001123802579144489</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>66.72573603809217</v>
+        <v>7.995462802725442</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001123802579144489</v>
+        <v>1.395459137210667</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.995462802725442</v>
+        <v>0.007184180557603825</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.395459137210667</v>
+        <v>3.222941836377388</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007184180557603825</v>
+        <v>0.958805148347447</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.222941836377388</v>
+        <v>1.610067612105217</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.958805148347447</v>
+        <v>48</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.610067612105217</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3117457659462461</v>
       </c>
     </row>
@@ -5758,72 +5680,66 @@
         <v>6.79119580070147e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.01876967785486008</v>
+        <v>3.33494066919858e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.4870255779807664</v>
+        <v>2.866292318206389e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.33494066919858e-07</v>
+        <v>-0.08184763876238267</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.866292318206389e-06</v>
+        <v>0.114483010160974</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.08184763876238267</v>
+        <v>0.01980459626737715</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.114483010160974</v>
+        <v>1.856904327962865</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01980459626737715</v>
+        <v>1.990101231368243</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.824687292701853</v>
+        <v>4.388884528453846</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.990101231368243</v>
+        <v>4.654154461546e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.388884528453846</v>
+        <v>371035915.8067396</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.654154461546e-16</v>
+        <v>3.191215858609993e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>371035915.8067396</v>
+        <v>64.07265112676924</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.191215858609993e-07</v>
+        <v>0.0001132652640104374</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>64.07265112676924</v>
+        <v>7.662995191905864</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001132652640104374</v>
+        <v>1.446023276217475</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.662995191905864</v>
+        <v>0.006651105669507604</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.446023276217475</v>
+        <v>3.246815319655753</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.006651105669507604</v>
+        <v>0.9584111857326413</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.246815319655753</v>
+        <v>1.565604083288785</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9584111857326413</v>
+        <v>57</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.565604083288785</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3143271638558012</v>
       </c>
     </row>
@@ -5838,72 +5754,66 @@
         <v>6.736944448361354e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2456600377178625</v>
+        <v>3.353120964264381e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.3629103520088148</v>
+        <v>2.860708061490501e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.353120964264381e-07</v>
+        <v>-0.0829640363638426</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.860708061490501e-06</v>
+        <v>0.1155385131527084</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0829640363638426</v>
+        <v>0.02022957050589819</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1155385131527084</v>
+        <v>1.855111070333299</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02022957050589819</v>
+        <v>1.994503770168121</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.824902982749003</v>
+        <v>4.423156195580347</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.994503770168121</v>
+        <v>4.582310881246921e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.423156195580347</v>
+        <v>383180503.5329997</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.582310881246921e-16</v>
+        <v>3.091444306031499e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>383180503.5329997</v>
+        <v>67.28083266082881</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.091444306031499e-07</v>
+        <v>0.0001226994310045647</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>67.28083266082881</v>
+        <v>8.144469640273368</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001226994310045647</v>
+        <v>1.513549229505144</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.144469640273368</v>
+        <v>0.008138945985183065</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.513549229505144</v>
+        <v>3.183608445535053</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008138945985183065</v>
+        <v>0.9590304944246083</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.183608445535053</v>
+        <v>1.580955035065517</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9590304944246083</v>
+        <v>76</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.580955035065517</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3316177516561637</v>
       </c>
     </row>
@@ -5918,72 +5828,66 @@
         <v>6.725504459356487e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.5070008448289806</v>
+        <v>3.30344813941939e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.2184357490056827</v>
+        <v>2.855152770627228e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.30344813941939e-07</v>
+        <v>-0.08187712342156625</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.855152770627228e-06</v>
+        <v>0.1147081032580191</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.08187712342156625</v>
+        <v>0.01985779281460885</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1147081032580191</v>
+        <v>1.852534497708908</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01985779281460885</v>
+        <v>1.915736354656152</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.825115245774413</v>
+        <v>4.483066677163853</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.915736354656152</v>
+        <v>4.4606557243714e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.483066677163853</v>
+        <v>396125251.634001</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.4606557243714e-16</v>
+        <v>2.989128618105515e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>396125251.634001</v>
+        <v>69.99447519508757</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.989128618105515e-07</v>
+        <v>0.0001436313591844006</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>69.99447519508757</v>
+        <v>9.283048227615737</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001436313591844006</v>
+        <v>1.478972096452136</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.283048227615737</v>
+        <v>0.01237743013652642</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.478972096452136</v>
+        <v>3.009158870063601</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01237743013652642</v>
+        <v>0.9599439479060256</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.009158870063601</v>
+        <v>1.599232341833556</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9599439479060256</v>
+        <v>76</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.599232341833556</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3716800003032595</v>
       </c>
     </row>
@@ -5998,72 +5902,66 @@
         <v>6.768774809365094e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.7246985341895142</v>
+        <v>3.200101925420825e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.08695060988780101</v>
+        <v>2.849726330980914e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.200101925420825e-07</v>
+        <v>-0.07880856346205269</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.849726330980914e-06</v>
+        <v>0.1116677996939999</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.07880856346205269</v>
+        <v>0.01867604290879823</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1116677996939999</v>
+        <v>1.848267057351944</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01867604290879823</v>
+        <v>1.886881195914683</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.823173815447631</v>
+        <v>4.421495071364773</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.886881195914683</v>
+        <v>4.585754611158383e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.421495071364773</v>
+        <v>394889895.9860091</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.585754611158383e-16</v>
+        <v>2.992114368259149e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>394889895.9860091</v>
+        <v>71.50935399066094</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.992114368259149e-07</v>
+        <v>0.0001470608850758898</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>71.50935399066094</v>
+        <v>9.225322201396054</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001470608850758898</v>
+        <v>1.418801757628473</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.225322201396054</v>
+        <v>0.01251584746873303</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.418801757628473</v>
+        <v>2.974845296389055</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01251584746873303</v>
+        <v>0.9603098293895865</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.974845296389055</v>
+        <v>1.55868126047728</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9603098293895865</v>
+        <v>76</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.55868126047728</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.4338713784298143</v>
       </c>
     </row>
@@ -6078,72 +5976,66 @@
         <v>6.860002472410085e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.8745373601515537</v>
+        <v>3.051667308527325e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.03794332323114968</v>
+        <v>2.844510353166375e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.051667308527325e-07</v>
+        <v>-0.07415116818125499</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.844510353166375e-06</v>
+        <v>0.1073446287224898</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.07415116818125499</v>
+        <v>0.01701705637781357</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1073446287224898</v>
+        <v>1.857387078599572</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01701705637781357</v>
+        <v>1.987912817369567</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.836419880807181</v>
+        <v>4.705340339709718</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.987912817369567</v>
+        <v>5.000337699059906e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.705340339709718</v>
+        <v>360000541.9702813</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.000337699059906e-16</v>
+        <v>3.288893655286966e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>360000541.9702813</v>
+        <v>64.80457170244219</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.288893655286966e-07</v>
+        <v>0.0001224402352197981</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>64.80457170244219</v>
+        <v>7.866248888507033</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001224402352197981</v>
+        <v>1.316668122709582</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.866248888507033</v>
+        <v>0.007576341150658325</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.316668122709582</v>
+        <v>3.200764056330224</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007576341150658325</v>
+        <v>0.9601075919429853</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.200764056330224</v>
+        <v>1.547856895364859</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9601075919429853</v>
+        <v>76</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.547856895364859</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.4929238773604231</v>
       </c>
     </row>
@@ -6520,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.718113611709802</v>
+        <v>1.719665470175475</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.207160644521173</v>
@@ -6609,7 +6501,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.73670441460243</v>
+        <v>1.730993179287384</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.221201264507793</v>
@@ -6698,7 +6590,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.743421127079568</v>
+        <v>1.739088036389866</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.189965127547025</v>
@@ -6787,7 +6679,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.769488308650296</v>
+        <v>1.755976955400649</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.163585612725971</v>
@@ -6876,7 +6768,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.789546904884509</v>
+        <v>1.770610184311919</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.170150848792911</v>
@@ -6965,7 +6857,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.816909626436028</v>
+        <v>1.785029937078304</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.076586528463134</v>
@@ -7054,7 +6946,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.816824258910561</v>
+        <v>1.780013026862582</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.149903681692565</v>
@@ -7143,7 +7035,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.815676106362386</v>
+        <v>1.780454422966349</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.056651961528273</v>
@@ -7232,7 +7124,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.814989084271225</v>
+        <v>1.786344285803976</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.151995683519407</v>
@@ -7321,7 +7213,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.827094805277177</v>
+        <v>1.803607344316956</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.142951297888615</v>
@@ -7410,7 +7302,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.826601645777205</v>
+        <v>1.805935731153059</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.14053778654386</v>
@@ -7499,7 +7391,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.83340910198063</v>
+        <v>1.817982573291373</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.160905622353129</v>
@@ -7588,7 +7480,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.874811306603561</v>
+        <v>1.861424195989689</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.052322539541048</v>
@@ -7677,7 +7569,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.859604838487783</v>
+        <v>1.851595679255734</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.53210873393503</v>
@@ -7766,7 +7658,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.859776306345511</v>
+        <v>1.84573300322398</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.120368511923575</v>
@@ -7855,7 +7747,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.842338085439322</v>
+        <v>1.835510432992953</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.074549369842849</v>
@@ -7944,7 +7836,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.850503450273671</v>
+        <v>1.8408492056164</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.044084721645699</v>
@@ -8033,7 +7925,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.849372093313247</v>
+        <v>1.839498254400327</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.241141458395671</v>
@@ -8122,7 +8014,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.852835935785031</v>
+        <v>1.848206398004205</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.284128782458442</v>
@@ -8211,7 +8103,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.854064506153617</v>
+        <v>1.847898428713225</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.227498102419559</v>
@@ -8300,7 +8192,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.845940746926163</v>
+        <v>1.846055069721422</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.051694792237024</v>
@@ -8389,7 +8281,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.84095537464673</v>
+        <v>1.839117300191959</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.13904932274342</v>
@@ -8478,7 +8370,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.840007116320368</v>
+        <v>1.845490657376876</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.46603453506691</v>
@@ -8567,7 +8459,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.827371890886388</v>
+        <v>1.835434405950223</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.473925375642488</v>
@@ -8656,7 +8548,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.831108710027239</v>
+        <v>1.834083078553664</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.377545667364106</v>
@@ -8745,7 +8637,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.82935097122422</v>
+        <v>1.828984067233405</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.248815190914824</v>
@@ -8834,7 +8726,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.802827064221337</v>
+        <v>1.801500323654716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.123573157837132</v>
@@ -8923,7 +8815,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.8001653161131</v>
+        <v>1.793244671118869</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.215391294023732</v>
@@ -9012,7 +8904,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.812087361526841</v>
+        <v>1.804781322468887</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.355818797439616</v>
@@ -9101,7 +8993,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.827601802354608</v>
+        <v>1.819530181341307</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.727415992044768</v>
@@ -9190,7 +9082,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.838735980162916</v>
+        <v>1.830549467483697</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.278171951476</v>
@@ -9279,7 +9171,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.841272918119651</v>
+        <v>1.83508380295495</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.471021047080605</v>
@@ -9368,7 +9260,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.849374898136111</v>
+        <v>1.839078298656098</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.528426191321083</v>
@@ -9457,7 +9349,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.842707745456704</v>
+        <v>1.827692224547496</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.34393750043158</v>
@@ -9546,7 +9438,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.837375776601784</v>
+        <v>1.820626480027222</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.381986376663147</v>
@@ -9635,7 +9527,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.829040022209852</v>
+        <v>1.809488181668082</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.22966946119682</v>
@@ -9724,7 +9616,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.841610433430642</v>
+        <v>1.826586200802428</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.590072895980816</v>
@@ -9813,7 +9705,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.827487070777304</v>
+        <v>1.802484346395217</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.096967887541784</v>
@@ -9902,7 +9794,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.803049832344696</v>
+        <v>1.785322718937828</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.907340162042783</v>
@@ -9991,7 +9883,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.781768756690252</v>
+        <v>1.762449213465547</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.800715072669501</v>
@@ -10080,7 +9972,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.773240905988142</v>
+        <v>1.751721915388059</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.886650029154072</v>
@@ -10169,7 +10061,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.78819356280819</v>
+        <v>1.766465035976767</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.794861121417085</v>
@@ -10258,7 +10150,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.785329901264507</v>
+        <v>1.764678127142747</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.821519048364579</v>
@@ -10347,7 +10239,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.756509515162716</v>
+        <v>1.736854032457906</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.745228618776461</v>
@@ -10436,7 +10328,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.746374339730566</v>
+        <v>1.725740602046729</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.825855937377683</v>
@@ -10525,7 +10417,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.731626817541404</v>
+        <v>1.707874155636136</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.830739926528443</v>
@@ -10614,7 +10506,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.734483525946268</v>
+        <v>1.716801763976292</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.789395196621452</v>
@@ -10703,7 +10595,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.72608128365757</v>
+        <v>1.707985144549707</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.809206706998398</v>
@@ -10792,7 +10684,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.731408525735809</v>
+        <v>1.708977399722478</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.912185497530068</v>
@@ -10881,7 +10773,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.738261882624581</v>
+        <v>1.718897948128698</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.794590456485668</v>
@@ -10970,7 +10862,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.751625282499536</v>
+        <v>1.73622007304311</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.848377718996205</v>
@@ -11059,7 +10951,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.7510042734886</v>
+        <v>1.732671668288327</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.815356511578564</v>
@@ -11148,7 +11040,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.794320496863403</v>
+        <v>1.775284014091732</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.187093532965701</v>
@@ -11237,7 +11129,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.817578931084569</v>
+        <v>1.801381655670458</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.809613761451563</v>
@@ -11326,7 +11218,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.830057837290711</v>
+        <v>1.818316792005837</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.880615060143713</v>
@@ -11415,7 +11307,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.846859650945621</v>
+        <v>1.842972353584202</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.966269910558846</v>
@@ -11504,7 +11396,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.864931326739384</v>
+        <v>1.861417473887876</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.966750495084367</v>
@@ -11593,7 +11485,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.884207597106952</v>
+        <v>1.880660066707331</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.884259460373353</v>
@@ -11682,7 +11574,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.894797694898293</v>
+        <v>1.895728574311151</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.005590024984277</v>
@@ -11771,7 +11663,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.904544436854905</v>
+        <v>1.909574788642729</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.179507491737708</v>
@@ -11860,7 +11752,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.921281264547744</v>
+        <v>1.928377545465817</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.173718727800876</v>
@@ -12146,7 +12038,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.509646649292121</v>
+        <v>1.490087970766395</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.088062045007081</v>
@@ -12235,7 +12127,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.534747728178755</v>
+        <v>1.51665286497277</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.178876120552984</v>
@@ -12324,7 +12216,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554328071624189</v>
+        <v>1.538576426375888</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.082015636851493</v>
@@ -12413,7 +12305,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.563466653599517</v>
+        <v>1.54666960677407</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.052449779065797</v>
@@ -12502,7 +12394,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543831352507471</v>
+        <v>1.533292770859352</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.061936294883269</v>
@@ -12591,7 +12483,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.566736989460638</v>
+        <v>1.552483908073891</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.959118900961939</v>
@@ -12680,7 +12572,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577363219425247</v>
+        <v>1.565280240436076</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.098886515143528</v>
@@ -12769,7 +12661,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.574228690716828</v>
+        <v>1.562788384276548</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.04140031085432</v>
@@ -12858,7 +12750,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.569367355141264</v>
+        <v>1.561297149665393</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.088977971718999</v>
@@ -12947,7 +12839,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.595689172842844</v>
+        <v>1.59170285797618</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.02916902582177</v>
@@ -13036,7 +12928,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.576618820431974</v>
+        <v>1.569270805418164</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.113637842694942</v>
@@ -13125,7 +13017,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587930413735123</v>
+        <v>1.580632877642452</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.094773639394651</v>
@@ -13214,7 +13106,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.592867520970675</v>
+        <v>1.585918611110082</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.691701825728483</v>
@@ -13303,7 +13195,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589435127952826</v>
+        <v>1.577779663907673</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.727736210632322</v>
@@ -13392,7 +13284,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598216391844187</v>
+        <v>1.584071880875686</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.581683040323492</v>
@@ -13481,7 +13373,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.584299721521415</v>
+        <v>1.572454158975577</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.720830995566239</v>
@@ -13570,7 +13462,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.575636762300659</v>
+        <v>1.564857133487893</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.628852396132116</v>
@@ -13659,7 +13551,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.577122098345865</v>
+        <v>1.56011254290915</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.58107429444992</v>
@@ -13748,7 +13640,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.589209113845769</v>
+        <v>1.564734934026388</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.639873106262718</v>
@@ -13837,7 +13729,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.615306758115093</v>
+        <v>1.585314412386367</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.715008978075437</v>
@@ -13926,7 +13818,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.612971620813977</v>
+        <v>1.585915246797729</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.620525282031684</v>
@@ -14015,7 +13907,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.615151050699445</v>
+        <v>1.578071721681375</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.691606918394049</v>
@@ -14104,7 +13996,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.614862171790992</v>
+        <v>1.585376939801155</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.678128353880515</v>
@@ -14193,7 +14085,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.598835574250925</v>
+        <v>1.568199085902283</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.704474669015856</v>
@@ -14282,7 +14174,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.613440399935232</v>
+        <v>1.576603602984724</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.7009435888865</v>
@@ -14371,7 +14263,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.615548096304813</v>
+        <v>1.579949462871495</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.56429501361362</v>
@@ -14460,7 +14352,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.601138509579776</v>
+        <v>1.568004444360771</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.621978952272736</v>
@@ -14549,7 +14441,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.598345424389809</v>
+        <v>1.563191126392406</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.793263299644054</v>
@@ -14638,7 +14530,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.593857691940762</v>
+        <v>1.561079026327036</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.823166390093478</v>
@@ -14727,7 +14619,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601566319514646</v>
+        <v>1.571287830016024</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.325706376629451</v>
@@ -14816,7 +14708,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.618701481180832</v>
+        <v>1.582261456556611</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.500504819436353</v>
@@ -14905,7 +14797,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62577546649765</v>
+        <v>1.58758250228536</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.788119852023422</v>
@@ -14994,7 +14886,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.626341405832265</v>
+        <v>1.593603653230624</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.064748765878254</v>
@@ -15083,7 +14975,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.620927275573473</v>
+        <v>1.585253390046228</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.871508503712433</v>
@@ -15172,7 +15064,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.607664603237143</v>
+        <v>1.580565679545048</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.042252250780079</v>
@@ -15261,7 +15153,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.605838716100903</v>
+        <v>1.577637787657989</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.984661393242921</v>
@@ -15350,7 +15242,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.613727576340795</v>
+        <v>1.585077815968319</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.036428029966304</v>
@@ -15439,7 +15331,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.624883771505554</v>
+        <v>1.588133496196679</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.68181818902483</v>
@@ -15528,7 +15420,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.632418809750636</v>
+        <v>1.597144513923887</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.112775433920038</v>
@@ -15617,7 +15509,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632319662477753</v>
+        <v>1.593160934127588</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.954567261241288</v>
@@ -15706,7 +15598,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.644180495841538</v>
+        <v>1.606454308160498</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.141737561044137</v>
@@ -15795,7 +15687,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662538369412165</v>
+        <v>1.626487242367527</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.131777329339775</v>
@@ -15884,7 +15776,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.667127075673901</v>
+        <v>1.630401639878541</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.245982501384345</v>
@@ -15973,7 +15865,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.660960308314351</v>
+        <v>1.627442448955092</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.265650838928115</v>
@@ -16062,7 +15954,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.655881353561087</v>
+        <v>1.620973673847724</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.344901758917853</v>
@@ -16151,7 +16043,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.649563405655426</v>
+        <v>1.617645350687375</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.135759978934699</v>
@@ -16240,7 +16132,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.649534946102768</v>
+        <v>1.61885648556746</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.38285832261816</v>
@@ -16329,7 +16221,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.632214778985825</v>
+        <v>1.605237964913851</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.372854013706026</v>
@@ -16418,7 +16310,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.640361563053721</v>
+        <v>1.613220313547375</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.867233228166625</v>
@@ -16507,7 +16399,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647258928076551</v>
+        <v>1.614208474716964</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.862010218650221</v>
@@ -16596,7 +16488,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.647459805536196</v>
+        <v>1.60928837363917</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.346914569089027</v>
@@ -16685,7 +16577,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.652870417766397</v>
+        <v>1.618499189751046</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.198998907054608</v>
@@ -16774,7 +16666,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.667165591812003</v>
+        <v>1.633623684221117</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.993707905341387</v>
@@ -16863,7 +16755,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.664981518417469</v>
+        <v>1.636287468857232</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.900848639831103</v>
@@ -16952,7 +16844,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.663065688887573</v>
+        <v>1.639335149118026</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.345194081015555</v>
@@ -17041,7 +16933,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.667889062412658</v>
+        <v>1.645114134596727</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.325608013867971</v>
@@ -17130,7 +17022,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.670994532226599</v>
+        <v>1.649060519892417</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.35383768678544</v>
@@ -17219,7 +17111,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.673072421589994</v>
+        <v>1.653246961936496</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.294619866138977</v>
@@ -17308,7 +17200,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.674939626152007</v>
+        <v>1.652039418498239</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.216661098347324</v>
@@ -17397,7 +17289,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.681155820116618</v>
+        <v>1.646789961271853</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.3603088219336</v>
@@ -17486,7 +17378,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.673927170693067</v>
+        <v>1.63676993591392</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.24856656314822</v>
@@ -17772,7 +17664,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556000406439647</v>
+        <v>1.545241663395399</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.049313199828312</v>
@@ -17861,7 +17753,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561683439579474</v>
+        <v>1.551221762404366</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.018910426916188</v>
@@ -17950,7 +17842,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.573724189511374</v>
+        <v>1.568140644600164</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.031828088554622</v>
@@ -18039,7 +17931,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.591224260340668</v>
+        <v>1.586894895966135</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.005419442343585</v>
@@ -18128,7 +18020,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61211597030264</v>
+        <v>1.606000697201252</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.033707445517884</v>
@@ -18217,7 +18109,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.62612995062066</v>
+        <v>1.615458892828482</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.005350042843339</v>
@@ -18306,7 +18198,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.610754941578314</v>
+        <v>1.598337043073118</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.996124447008341</v>
@@ -18395,7 +18287,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.609964950288243</v>
+        <v>1.600112034780067</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.026563048974342</v>
@@ -18484,7 +18376,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615552812164802</v>
+        <v>1.605202439519488</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.025457972925568</v>
@@ -18573,7 +18465,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.625942540640517</v>
+        <v>1.61166832033841</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.007186340798779</v>
@@ -18662,7 +18554,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.630280570781134</v>
+        <v>1.611557276335726</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.150237414494311</v>
@@ -18751,7 +18643,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.641497751120131</v>
+        <v>1.625616183719957</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.017978590097731</v>
@@ -18840,7 +18732,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.657279127129694</v>
+        <v>1.63847438364894</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.14893092744273</v>
@@ -18929,7 +18821,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611065967827979</v>
+        <v>1.600087596659038</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.50319842335877</v>
@@ -19018,7 +18910,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.61055862353099</v>
+        <v>1.595759841735267</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.444969420686099</v>
@@ -19107,7 +18999,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.607837686428468</v>
+        <v>1.592015849234637</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.396411117580546</v>
@@ -19196,7 +19088,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.614089516665747</v>
+        <v>1.599363090221403</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.428095264129497</v>
@@ -19285,7 +19177,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615126885954294</v>
+        <v>1.599850541736262</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.449411741665452</v>
@@ -19374,7 +19266,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614034813800172</v>
+        <v>1.595091809138889</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.434877354581265</v>
@@ -19463,7 +19355,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.61912456165923</v>
+        <v>1.599750361188331</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.482490247629934</v>
@@ -19552,7 +19444,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.624550542266359</v>
+        <v>1.607467153763348</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.456033754967847</v>
@@ -19641,7 +19533,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.628842821958989</v>
+        <v>1.609362918603059</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.592267650912889</v>
@@ -19730,7 +19622,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.635008193182626</v>
+        <v>1.615757487276961</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.371509075554515</v>
@@ -19819,7 +19711,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.635071712344931</v>
+        <v>1.617636536524845</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.500127540687181</v>
@@ -19908,7 +19800,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.634295123661356</v>
+        <v>1.608792434559856</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.559024786527098</v>
@@ -19997,7 +19889,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.64788656425024</v>
+        <v>1.62116440967907</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.497602806124406</v>
@@ -20086,7 +19978,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.643431612639866</v>
+        <v>1.619161953465409</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.540245937859521</v>
@@ -20175,7 +20067,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667698919653044</v>
+        <v>1.631665506261621</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.332097752578183</v>
@@ -20264,7 +20156,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.708707343379073</v>
+        <v>1.666233242715291</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.930223647698755</v>
@@ -20353,7 +20245,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.716362842773533</v>
+        <v>1.671480129775176</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.48280522596428</v>
@@ -20442,7 +20334,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.723560304010768</v>
+        <v>1.67741437879131</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.325719064530399</v>
@@ -20531,7 +20423,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.71271641381909</v>
+        <v>1.671383141898353</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.262897881328015</v>
@@ -20620,7 +20512,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.718225066913577</v>
+        <v>1.676316849703032</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.113650684867692</v>
@@ -20709,7 +20601,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.72284662124243</v>
+        <v>1.682851078119055</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.462194194077319</v>
@@ -20798,7 +20690,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.669756797175277</v>
+        <v>1.639338902377004</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.673902615570598</v>
@@ -20887,7 +20779,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.668673387121755</v>
+        <v>1.637688919444324</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.587128215413118</v>
@@ -20976,7 +20868,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.658308372605843</v>
+        <v>1.626445728783369</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.631503374714351</v>
@@ -21065,7 +20957,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.632881827220726</v>
+        <v>1.600714247919163</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.662097597646683</v>
@@ -21154,7 +21046,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.620098030493255</v>
+        <v>1.588146921616777</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.556055947951702</v>
@@ -21243,7 +21135,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.605468319356517</v>
+        <v>1.5827081184839</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.671850927418735</v>
@@ -21332,7 +21224,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.601234090921384</v>
+        <v>1.574904656502438</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.657874180869695</v>
@@ -21421,7 +21313,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.596703107200877</v>
+        <v>1.572089980341057</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.574063361298037</v>
@@ -21510,7 +21402,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.588602801416132</v>
+        <v>1.566126615978219</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.56787520913472</v>
@@ -21599,7 +21491,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.57788883113653</v>
+        <v>1.553855750982262</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.4971344315732</v>
@@ -21688,7 +21580,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.576240651104614</v>
+        <v>1.550422360442882</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.649146721684805</v>
@@ -21777,7 +21669,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576321749271366</v>
+        <v>1.548215880834139</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.545084735965808</v>
@@ -21866,7 +21758,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.585287096472493</v>
+        <v>1.560128957741554</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.540236104145559</v>
@@ -21955,7 +21847,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.579464228271791</v>
+        <v>1.554376395381035</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.6090011115442</v>
@@ -22044,7 +21936,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.587394225494384</v>
+        <v>1.552368331933317</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.590502617550635</v>
@@ -22133,7 +22025,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.62355852613082</v>
+        <v>1.585889918150203</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.185218055967464</v>
@@ -22222,7 +22114,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.622230114056465</v>
+        <v>1.584959804650292</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.109322136685751</v>
@@ -22311,7 +22203,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.627395050552078</v>
+        <v>1.591544133882824</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.158742681913232</v>
@@ -22400,7 +22292,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.610974008206305</v>
+        <v>1.582121322372259</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.558576397272041</v>
@@ -22489,7 +22381,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.612020106436705</v>
+        <v>1.588707212479616</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.561582652502329</v>
@@ -22578,7 +22470,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.652007314149782</v>
+        <v>1.624856553192571</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.624556942979223</v>
@@ -22667,7 +22559,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.661652302416921</v>
+        <v>1.640191702520539</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.450498373966309</v>
@@ -22756,7 +22648,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.680542122511249</v>
+        <v>1.66169812208823</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.534710164794092</v>
@@ -22845,7 +22737,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.698052344187396</v>
+        <v>1.68004467250145</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.478637376484971</v>
@@ -22934,7 +22826,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.707510982135049</v>
+        <v>1.692592922742975</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.644853827255956</v>
@@ -23023,7 +22915,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.710039338481009</v>
+        <v>1.695581334947764</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.685791876946196</v>
@@ -23112,7 +23004,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.716303359239036</v>
+        <v>1.707591658394657</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.722494199317916</v>
@@ -23398,7 +23290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.406484711665008</v>
+        <v>1.417021006759846</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.901137881791667</v>
@@ -23487,7 +23379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.410346604604875</v>
+        <v>1.421577522090558</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.884025928669112</v>
@@ -23576,7 +23468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.416467439712222</v>
+        <v>1.427704583542286</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.921261681145058</v>
@@ -23665,7 +23557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.432607593414647</v>
+        <v>1.44320745916894</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.915306132912157</v>
@@ -23754,7 +23646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.437696853594804</v>
+        <v>1.445592176570661</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.948076326914017</v>
@@ -23843,7 +23735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.446305156515119</v>
+        <v>1.455811766103842</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.907390691963113</v>
@@ -23932,7 +23824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.459634768411854</v>
+        <v>1.467522007276806</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.859452844802658</v>
@@ -24021,7 +23913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.460017583706486</v>
+        <v>1.469820841196061</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.904178600442176</v>
@@ -24110,7 +24002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.459748978543163</v>
+        <v>1.470519615453939</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.843653979473042</v>
@@ -24199,7 +24091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.455775307397503</v>
+        <v>1.468802230897868</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.899134010802137</v>
@@ -24288,7 +24180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.462446904497806</v>
+        <v>1.473855756442108</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.9115176663085</v>
@@ -24377,7 +24269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.48912981159346</v>
+        <v>1.499937319688513</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.881472923812274</v>
@@ -24466,7 +24358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.452875435683219</v>
+        <v>1.469588598137791</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.008554487643095</v>
@@ -24555,7 +24447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.448139962803945</v>
+        <v>1.462242774875348</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.0549431723399</v>
@@ -24644,7 +24536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.441046577817353</v>
+        <v>1.453277111188752</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.020340200457736</v>
@@ -24733,7 +24625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.442301268656421</v>
+        <v>1.454441807599267</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.051452574402588</v>
@@ -24822,7 +24714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.458525878603278</v>
+        <v>1.469869238837421</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.055111163429132</v>
@@ -24911,7 +24803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.442761800829724</v>
+        <v>1.456708518333301</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.068556110459859</v>
@@ -25000,7 +24892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.453709632851784</v>
+        <v>1.462197430687246</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.989267493079527</v>
@@ -25089,7 +24981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.498095273860226</v>
+        <v>1.509285935345314</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.015693429739712</v>
@@ -25178,7 +25070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.446604779655341</v>
+        <v>1.45979133215008</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.036037762356705</v>
@@ -25267,7 +25159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.441839999980472</v>
+        <v>1.458142533718223</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.061025740586856</v>
@@ -25356,7 +25248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.452064856511336</v>
+        <v>1.466932878274705</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.018632005214096</v>
@@ -25445,7 +25337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.458837665915505</v>
+        <v>1.475108452685565</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.081098401581068</v>
@@ -25534,7 +25426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.485283420000441</v>
+        <v>1.496959247893782</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.072732321605204</v>
@@ -25623,7 +25515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.492310446230233</v>
+        <v>1.504834007867504</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.091678128668076</v>
@@ -25712,7 +25604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.510694320237989</v>
+        <v>1.514898466422172</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.031036005172746</v>
@@ -25801,7 +25693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.574763318373113</v>
+        <v>1.573385945423228</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.054420036270356</v>
@@ -25890,7 +25782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571907620778897</v>
+        <v>1.568540500879064</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.027257706950651</v>
@@ -25979,7 +25871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548153051923566</v>
+        <v>1.550216494827623</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.04185437303578</v>
@@ -26068,7 +25960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.535984209820179</v>
+        <v>1.537918778953602</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.035165358399469</v>
@@ -26157,7 +26049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.478610603412361</v>
+        <v>1.482856401492949</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.067349055311308</v>
@@ -26246,7 +26138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.499220486277284</v>
+        <v>1.504895592257076</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.090556502686545</v>
@@ -26335,7 +26227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.500095815306469</v>
+        <v>1.509988891028383</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.057401052695753</v>
@@ -26424,7 +26316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508835893558528</v>
+        <v>1.514833637016127</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.957522146605495</v>
@@ -26513,7 +26405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.573924795195416</v>
+        <v>1.570587755510563</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.045146444987553</v>
@@ -26602,7 +26494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.581564719697611</v>
+        <v>1.571130053845708</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.073540411722531</v>
@@ -26691,7 +26583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560684540629669</v>
+        <v>1.550593725678097</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.089556186340192</v>
@@ -26780,7 +26672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.54175585543811</v>
+        <v>1.533598870029793</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.093022374962684</v>
@@ -26869,7 +26761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.534612933756492</v>
+        <v>1.525899831459569</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.115494389518669</v>
@@ -26958,7 +26850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.483458208445207</v>
+        <v>1.479459655053509</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.038633182441113</v>
@@ -27047,7 +26939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.458485495282062</v>
+        <v>1.461124696894269</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.016936350961184</v>
@@ -27136,7 +27028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.460710699009391</v>
+        <v>1.465320839883839</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.001278531961689</v>
@@ -27225,7 +27117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.464943776717531</v>
+        <v>1.471968402201727</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.977726283732017</v>
@@ -27314,7 +27206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.484868750873134</v>
+        <v>1.489230114421785</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.031721208911054</v>
@@ -27403,7 +27295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.497184123049485</v>
+        <v>1.4986898678867</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.988000077273926</v>
@@ -27492,7 +27384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.549872312165648</v>
+        <v>1.554126283548585</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.973087726527719</v>
@@ -27581,7 +27473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530783461798289</v>
+        <v>1.529086579080018</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.996703317672913</v>
@@ -27670,7 +27562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.523174883145909</v>
+        <v>1.522948192445186</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.015429971697539</v>
@@ -27759,7 +27651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.523610701770874</v>
+        <v>1.525891888675529</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.013519754630584</v>
@@ -27848,7 +27740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.462632501233746</v>
+        <v>1.472168927591754</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.979905495565285</v>
@@ -27937,7 +27829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.460434843476392</v>
+        <v>1.476688739255825</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.028777235819049</v>
@@ -28026,7 +27918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.473453288240905</v>
+        <v>1.490874578687132</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.048434137550911</v>
@@ -28115,7 +28007,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.488743061680623</v>
+        <v>1.503901354247045</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.01114965370761</v>
@@ -28204,7 +28096,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.503389858680346</v>
+        <v>1.522636266455279</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.016570923858262</v>
@@ -28293,7 +28185,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.567243154300898</v>
+        <v>1.576577199632576</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.919168386897061</v>
@@ -28382,7 +28274,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.578142694935145</v>
+        <v>1.592089503020954</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.976760983150743</v>
@@ -28471,7 +28363,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.573304545575926</v>
+        <v>1.585257623763266</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.977621719656556</v>
@@ -28560,7 +28452,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.508164781601877</v>
+        <v>1.523956676922297</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.989175973018163</v>
@@ -28649,7 +28541,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.505691599008535</v>
+        <v>1.52790978237517</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.022803935820666</v>
@@ -28738,7 +28630,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.511217236955628</v>
+        <v>1.53330329505521</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.046154441998917</v>
@@ -29024,7 +28916,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.400037164587806</v>
+        <v>1.394171647500466</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.350792199644808</v>
@@ -29113,7 +29005,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.406735186310962</v>
+        <v>1.399734308965173</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.350494623087723</v>
@@ -29202,7 +29094,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.448540686885817</v>
+        <v>1.444706968609362</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.334436991541805</v>
@@ -29291,7 +29183,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.464039661040997</v>
+        <v>1.459101645352436</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.328274839937706</v>
@@ -29380,7 +29272,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.471328488132788</v>
+        <v>1.469166470635372</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.325626582441383</v>
@@ -29469,7 +29361,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.48139327106378</v>
+        <v>1.479398163731107</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.322999351500553</v>
@@ -29558,7 +29450,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.481515884664576</v>
+        <v>1.479070487506551</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.323941014519568</v>
@@ -29647,7 +29539,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.481679285629639</v>
+        <v>1.479861159522646</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.323189512242028</v>
@@ -29736,7 +29628,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.481164634768871</v>
+        <v>1.478330294379138</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.32242171538925</v>
@@ -29825,7 +29717,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.482462607666142</v>
+        <v>1.478057951157085</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.320729676530447</v>
@@ -29914,7 +29806,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.478107360003131</v>
+        <v>1.474281091893015</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.32190534153475</v>
@@ -30003,7 +29895,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490310355446128</v>
+        <v>1.486264402512631</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.32588198081885</v>
@@ -30092,7 +29984,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.701202095455554</v>
+        <v>1.690092092136197</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.617285948850365</v>
@@ -30181,7 +30073,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.727732579865212</v>
+        <v>1.707660082767652</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.081868423208713</v>
@@ -30270,7 +30162,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.721107495970788</v>
+        <v>1.699890938326903</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.04469186947395</v>
@@ -30359,7 +30251,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.712456449946387</v>
+        <v>1.700293001598037</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.055025356199141</v>
@@ -30448,7 +30340,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.71524213110735</v>
+        <v>1.702311062875878</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.083653572053799</v>
@@ -30537,7 +30429,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.705690455140867</v>
+        <v>1.696678434487711</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.404276251214504</v>
@@ -30626,7 +30518,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711110695105389</v>
+        <v>1.703119190132187</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.975210286866965</v>
@@ -30715,7 +30607,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.713962981612514</v>
+        <v>1.704779312994087</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.390664403205909</v>
@@ -30804,7 +30696,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.710813776825182</v>
+        <v>1.700871417493487</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.160739877316164</v>
@@ -30893,7 +30785,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.713845415568936</v>
+        <v>1.695070267380792</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.271779884831295</v>
@@ -30982,7 +30874,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.706501537158667</v>
+        <v>1.690630762435539</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.371410256158554</v>
@@ -31071,7 +30963,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.69239244042552</v>
+        <v>1.682407090529843</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.206663495471195</v>
@@ -31160,7 +31052,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.719855067733001</v>
+        <v>1.706488906337183</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.179096269820225</v>
@@ -31249,7 +31141,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.729081725857433</v>
+        <v>1.711080784364373</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.287054240498781</v>
@@ -31338,7 +31230,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.729388677790472</v>
+        <v>1.707740435156927</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.989962198089958</v>
@@ -31427,7 +31319,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.738502581959847</v>
+        <v>1.714514128951464</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.599024186848256</v>
@@ -31516,7 +31408,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.745255429590225</v>
+        <v>1.719128189011737</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.564752566522195</v>
@@ -31605,7 +31497,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.760098735427195</v>
+        <v>1.733846974717171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.912293109953949</v>
@@ -31694,7 +31586,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.770263276534576</v>
+        <v>1.736977181615105</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.794059832893243</v>
@@ -31783,7 +31675,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.766964523685003</v>
+        <v>1.733706465751763</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.760113880630302</v>
@@ -31872,7 +31764,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.764478208409265</v>
+        <v>1.728110344998573</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.587916703831681</v>
@@ -31961,7 +31853,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.7567647877205</v>
+        <v>1.719838833058944</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.48763281880014</v>
@@ -32050,7 +31942,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.737832097952888</v>
+        <v>1.71170660688918</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.317820409313358</v>
@@ -32139,7 +32031,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.720274806122984</v>
+        <v>1.695181312194589</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.547946871014088</v>
@@ -32228,7 +32120,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.725080995560568</v>
+        <v>1.702480010936736</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.198841812363361</v>
@@ -32317,7 +32209,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.719031346302413</v>
+        <v>1.695328223583718</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.661010863278525</v>
@@ -32406,7 +32298,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.721334585102961</v>
+        <v>1.699648352817846</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.735853196448615</v>
@@ -32495,7 +32387,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.723197178936206</v>
+        <v>1.699654404890071</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.307226046194327</v>
@@ -32584,7 +32476,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.722579599391614</v>
+        <v>1.700796846508398</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.480217089738035</v>
@@ -32673,7 +32565,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.713578043842916</v>
+        <v>1.69554779477643</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.100805494144518</v>
@@ -32762,7 +32654,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710474479047631</v>
+        <v>1.691591418568317</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.371902318968094</v>
@@ -32851,7 +32743,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.709710995130653</v>
+        <v>1.691685523073418</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.433478170790308</v>
@@ -32940,7 +32832,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.705121075418026</v>
+        <v>1.68410112371641</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.360149668648944</v>
@@ -33029,7 +32921,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.689594497995755</v>
+        <v>1.672637041980407</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.598898743624013</v>
@@ -33118,7 +33010,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.690053820120804</v>
+        <v>1.676920680490814</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.292602559083143</v>
@@ -33207,7 +33099,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.683299468433092</v>
+        <v>1.675309354868717</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.472477344399606</v>
@@ -33296,7 +33188,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.690552447926532</v>
+        <v>1.684550780235327</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.244243502364214</v>
@@ -33385,7 +33277,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.697656252656356</v>
+        <v>1.687608594986519</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.125672624815549</v>
@@ -33474,7 +33366,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.697300700801941</v>
+        <v>1.691288344762581</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.360608721260742</v>
@@ -33563,7 +33455,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.707909540698826</v>
+        <v>1.704806098072819</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.56653659064851</v>
@@ -33652,7 +33544,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.723379381555017</v>
+        <v>1.717170006522926</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.66862852122935</v>
@@ -33741,7 +33633,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.727966379283729</v>
+        <v>1.720047556978795</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.730373311970399</v>
@@ -33830,7 +33722,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.72274277559525</v>
+        <v>1.71363111425894</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.62214061612546</v>
@@ -33919,7 +33811,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.731907988818443</v>
+        <v>1.719763486224163</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.551475385303027</v>
@@ -34008,7 +33900,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.740635837485208</v>
+        <v>1.730270433753838</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.666625786717327</v>
@@ -34097,7 +33989,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.748207120227923</v>
+        <v>1.734882222539737</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.96424480273159</v>
@@ -34186,7 +34078,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.71338623159076</v>
+        <v>1.703262279550272</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.129478360956433</v>
@@ -34275,7 +34167,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.716486217214421</v>
+        <v>1.710269451824665</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.091178227161321</v>
@@ -34364,7 +34256,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.72290701200743</v>
+        <v>1.712167562482201</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.122596340467767</v>
@@ -34650,7 +34542,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.498877696041861</v>
+        <v>1.500120321553564</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.215232218302293</v>
@@ -34739,7 +34631,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.514871534717289</v>
+        <v>1.513638777540833</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.137180414268141</v>
@@ -34828,7 +34720,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.543504023934548</v>
+        <v>1.537102582746445</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.139728516887544</v>
@@ -34917,7 +34809,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548866603397498</v>
+        <v>1.545028585954049</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.209892118848978</v>
@@ -35006,7 +34898,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.568085328040786</v>
+        <v>1.565741365158898</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.139373535441705</v>
@@ -35095,7 +34987,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.590559305080679</v>
+        <v>1.589088542709171</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.140255437494342</v>
@@ -35184,7 +35076,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593880179802052</v>
+        <v>1.596331124325296</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.184931383578924</v>
@@ -35273,7 +35165,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.583136459613326</v>
+        <v>1.583251110835859</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.102582398376624</v>
@@ -35362,7 +35254,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.580159574428896</v>
+        <v>1.582097061452308</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.146454995286576</v>
@@ -35451,7 +35343,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.593060292300226</v>
+        <v>1.591407059538723</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.339867387199376</v>
@@ -35540,7 +35432,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.589171535311623</v>
+        <v>1.580325538721064</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.224276313239176</v>
@@ -35629,7 +35521,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.590265017158258</v>
+        <v>1.579592552918236</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.178001804568525</v>
@@ -35718,7 +35610,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.60640149855156</v>
+        <v>1.593881337543932</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.977083633310361</v>
@@ -35807,7 +35699,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.585606908966867</v>
+        <v>1.573229728649742</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.018956645549288</v>
@@ -35896,7 +35788,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.589479163455291</v>
+        <v>1.570613465581185</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.956003661939208</v>
@@ -35985,7 +35877,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.575198611169973</v>
+        <v>1.559891334075004</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.081697002605894</v>
@@ -36074,7 +35966,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.573867738883083</v>
+        <v>1.557736198035737</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.043362069453935</v>
@@ -36163,7 +36055,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.577828088883269</v>
+        <v>1.561156319281023</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.874988008563536</v>
@@ -36252,7 +36144,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.587780631457951</v>
+        <v>1.57091322513078</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.840758740896156</v>
@@ -36341,7 +36233,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.582060212004975</v>
+        <v>1.566204436638999</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.822195673188495</v>
@@ -36430,7 +36322,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.586944682193618</v>
+        <v>1.570452805498966</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.935286605217995</v>
@@ -36519,7 +36411,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.582179662607487</v>
+        <v>1.565152362615689</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.033452448888494</v>
@@ -36608,7 +36500,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.599366460406853</v>
+        <v>1.585462925079366</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.025498452872819</v>
@@ -36697,7 +36589,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.603810309178338</v>
+        <v>1.583938457447719</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.953967226905679</v>
@@ -36786,7 +36678,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.601378657236545</v>
+        <v>1.584584148158272</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.015370524585579</v>
@@ -36875,7 +36767,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.606173838909796</v>
+        <v>1.592442954130889</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.083153209744971</v>
@@ -36964,7 +36856,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.575654157914483</v>
+        <v>1.570719057059263</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.94690901891861</v>
@@ -37053,7 +36945,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.573089496001575</v>
+        <v>1.569389181475455</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.09805649236585</v>
@@ -37142,7 +37034,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590888859186645</v>
+        <v>1.587635505340113</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.095891671887151</v>
@@ -37231,7 +37123,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.594374675091256</v>
+        <v>1.591538191782509</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.818309019127283</v>
@@ -37320,7 +37212,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.602343227853971</v>
+        <v>1.600627632217667</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.737129193780978</v>
@@ -37409,7 +37301,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.601603106636146</v>
+        <v>1.606037134262969</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.148333663604014</v>
@@ -37498,7 +37390,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.602692327855925</v>
+        <v>1.610871244698002</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.473495953169</v>
@@ -37587,7 +37479,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.598226690815277</v>
+        <v>1.605502940026688</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.325217651229061</v>
@@ -37676,7 +37568,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.598187506700235</v>
+        <v>1.605175983095237</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.556487584470552</v>
@@ -37765,7 +37657,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.578706296144869</v>
+        <v>1.587316280895582</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.111163625010142</v>
@@ -37854,7 +37746,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.584237440355459</v>
+        <v>1.590550903935689</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.968713456412661</v>
@@ -37943,7 +37835,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.561153603465829</v>
+        <v>1.563002752449937</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.726233862659405</v>
@@ -38032,7 +37924,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.535153888221277</v>
+        <v>1.543927655335542</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.641917092406833</v>
@@ -38121,7 +38013,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528653470460137</v>
+        <v>1.535817862348351</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.631286209767538</v>
@@ -38210,7 +38102,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.521003823262337</v>
+        <v>1.526071079563309</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.882835985518219</v>
@@ -38299,7 +38191,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.536010062737582</v>
+        <v>1.540122514143484</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.497067297080244</v>
@@ -38388,7 +38280,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.536818361704481</v>
+        <v>1.538306478465981</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.686759907641082</v>
@@ -38477,7 +38369,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.524344415581553</v>
+        <v>1.525431457385178</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.583631613254558</v>
@@ -38566,7 +38458,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.523199513283666</v>
+        <v>1.521384396434453</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.660860457037169</v>
@@ -38655,7 +38547,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.522220609562109</v>
+        <v>1.522496778975584</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.507372484311984</v>
@@ -38744,7 +38636,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.52567105678232</v>
+        <v>1.526009761287708</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.929001663186369</v>
@@ -38833,7 +38725,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.523378220812457</v>
+        <v>1.5200903535221</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.79326815231168</v>
@@ -38922,7 +38814,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.511549560353455</v>
+        <v>1.510694179298423</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.82507613325992</v>
@@ -39011,7 +38903,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.520612753388848</v>
+        <v>1.522222693249504</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.673788678387275</v>
@@ -39100,7 +38992,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.533490920427352</v>
+        <v>1.530626753017965</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.768941681260451</v>
@@ -39189,7 +39081,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.540911367230538</v>
+        <v>1.541122383113641</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.879437401134338</v>
@@ -39278,7 +39170,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.569755484880281</v>
+        <v>1.566769451762082</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.785329830860269</v>
@@ -39367,7 +39259,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.57435046025762</v>
+        <v>1.574002927988226</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.063304348957192</v>
@@ -39456,7 +39348,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.595771644879924</v>
+        <v>1.600249375433537</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.807862136187471</v>
@@ -39545,7 +39437,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.615336433449804</v>
+        <v>1.624453055935537</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.29039657216383</v>
@@ -39634,7 +39526,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.626114119928288</v>
+        <v>1.633689363106682</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.442284249588075</v>
@@ -39723,7 +39615,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.631179717835603</v>
+        <v>1.628637637504308</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.733729499347368</v>
@@ -39812,7 +39704,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.646280878580225</v>
+        <v>1.648855759072124</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.385854672950766</v>
@@ -39901,7 +39793,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.649198388546372</v>
+        <v>1.657529686623985</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.093860417363822</v>
@@ -39990,7 +39882,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.661321105830397</v>
+        <v>1.666925199031418</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.624545726245977</v>
